--- a/ig/clcore/1.8.6/CodeSystem-CSCodMadurez.xlsx
+++ b/ig/clcore/1.8.6/CodeSystem-CSCodMadurez.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.9</t>
   </si>
   <si>
     <t>Name</t>
